--- a/Cotizador/wwwroot/productos.xlsx
+++ b/Cotizador/wwwroot/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xulca\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DBBC00-67B7-4BE2-A5ED-E9C173E33A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED228AC-6F8C-43AF-908B-2CA3B994B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Producto</t>
   </si>
@@ -364,6 +364,12 @@
   </si>
   <si>
     <t>LIJA 3UM OXIDO DE ALUMINIO</t>
+  </si>
+  <si>
+    <t>prueba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esto es una prueba de actualizar datos en excel </t>
   </si>
 </sst>
 </file>
@@ -903,7 +909,7 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1120,12 +1126,24 @@
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="17"/>
+      <c r="A9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="27">
+        <v>90311032</v>
+      </c>
+      <c r="C9" s="14">
+        <v>89162710</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="16">
+        <v>89</v>
+      </c>
+      <c r="F9" s="17">
+        <v>33931883</v>
+      </c>
       <c r="G9" s="18"/>
       <c r="H9" s="19"/>
       <c r="I9" s="24"/>
@@ -1825,6 +1843,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Cotizador/wwwroot/productos.xlsx
+++ b/Cotizador/wwwroot/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xulca\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED228AC-6F8C-43AF-908B-2CA3B994B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DBBC00-67B7-4BE2-A5ED-E9C173E33A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Producto</t>
   </si>
@@ -364,12 +364,6 @@
   </si>
   <si>
     <t>LIJA 3UM OXIDO DE ALUMINIO</t>
-  </si>
-  <si>
-    <t>prueba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esto es una prueba de actualizar datos en excel </t>
   </si>
 </sst>
 </file>
@@ -909,7 +903,7 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1126,24 +1120,12 @@
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="27">
-        <v>90311032</v>
-      </c>
-      <c r="C9" s="14">
-        <v>89162710</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="16">
-        <v>89</v>
-      </c>
-      <c r="F9" s="17">
-        <v>33931883</v>
-      </c>
+      <c r="A9" s="12"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19"/>
       <c r="I9" s="24"/>
@@ -1843,7 +1825,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>